--- a/Test Case - 2/TC2_Results_D.xlsx
+++ b/Test Case - 2/TC2_Results_D.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25065" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Reductive" sheetId="1" r:id="rId1"/>
+    <sheet name="Multiplicative" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="132">
   <si>
     <t>56ad1cbb-a42b-4fcf-bd5d-e16a2513146b</t>
   </si>
@@ -370,6 +371,51 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>XL Multi</t>
+  </si>
+  <si>
+    <t>JSON Multi</t>
+  </si>
+  <si>
+    <t>VSCode Multi</t>
+  </si>
+  <si>
+    <t>Equation 3</t>
+  </si>
+  <si>
+    <t>Equation 4</t>
+  </si>
+  <si>
+    <t>Equation 5</t>
+  </si>
+  <si>
+    <t>XL Match</t>
+  </si>
+  <si>
+    <t>VSCode Match</t>
   </si>
 </sst>
 </file>
@@ -693,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -808,6 +854,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -853,9 +936,27 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,10 +964,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -913,7 +1020,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -961,6 +1078,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1242,112 +1399,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="9.140625" style="5"/>
+    <col min="2" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>59.994999999999997</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>29.998999999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>60</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>30</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>30</v>
       </c>
       <c r="H3" t="s">
@@ -1382,22 +1539,22 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>59.331000000000003</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>36.198999999999998</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>59.344428020000002</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>36.237350720000002</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>30</v>
       </c>
       <c r="H4" t="s">
@@ -1432,22 +1589,22 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>57.436</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>42.142000000000003</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>57.406363730000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>42.20209929</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>30</v>
       </c>
       <c r="H5" t="s">
@@ -1482,22 +1639,22 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>54.290999999999997</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>47.582999999999998</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>54.270509830000002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>47.633557570000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>30</v>
       </c>
       <c r="H6" t="s">
@@ -1539,22 +1696,22 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>50.094999999999999</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>52.244</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>50.073918190000001</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>52.294344760000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>30</v>
       </c>
       <c r="H7" t="s">
@@ -1589,22 +1746,22 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>45.021000000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>55.93</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>45</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>55.980762110000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>30</v>
       </c>
       <c r="H8" t="s">
@@ -1639,22 +1796,22 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>39.281999999999996</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>58.481000000000002</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>39.270509830000002</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>58.531695489999997</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>30</v>
       </c>
       <c r="H9" t="s">
@@ -1689,22 +1846,22 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>33.165999999999997</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>59.765999999999998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>33.135853900000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>59.83565686</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>30</v>
       </c>
       <c r="H10" t="s">
@@ -1739,22 +1896,22 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>26.885000000000002</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>59.765999999999998</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>26.864146099999999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>59.83565686</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1789,22 +1946,22 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>20.75</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>58.491</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>20.729490169999998</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>58.531695489999997</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>30</v>
       </c>
       <c r="H12" t="s">
@@ -1839,22 +1996,22 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>15.03</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>55.920999999999999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>15</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>55.980762110000001</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>30</v>
       </c>
       <c r="H13" t="s">
@@ -1889,22 +2046,22 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>9.9469999999999992</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>52.244</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>9.9260818089999994</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>52.294344760000001</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>30</v>
       </c>
       <c r="H14" t="s">
@@ -1939,22 +2096,22 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>5.75</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>47.582999999999998</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>5.729490169</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>47.633557570000001</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>30</v>
       </c>
       <c r="H15" t="s">
@@ -1989,22 +2146,22 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>2.6150000000000002</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>42.131999999999998</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>2.5936362709999998</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>42.20209929</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>30</v>
       </c>
       <c r="H16" t="s">
@@ -2039,22 +2196,22 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>0.67600000000000005</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>36.195999999999998</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>0.655571978</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>36.237350720000002</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>30</v>
       </c>
       <c r="H17" t="s">
@@ -2089,22 +2246,22 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>29.959</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>30</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>30</v>
       </c>
       <c r="H18" t="s">
@@ -2139,22 +2296,22 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>0.67600000000000005</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>23.693000000000001</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>0.655571978</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>23.762649280000002</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>30</v>
       </c>
       <c r="H19" t="s">
@@ -2189,22 +2346,22 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>2.6150000000000002</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>17.738</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>2.5936362709999998</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>17.79790071</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>30</v>
       </c>
       <c r="H20" t="s">
@@ -2239,22 +2396,22 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>5.75</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>12.305999999999999</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>5.729490169</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>12.366442429999999</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>30</v>
       </c>
       <c r="H21" t="s">
@@ -2289,22 +2446,22 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>9.9469999999999992</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>7.6550000000000002</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>9.9260818089999994</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>7.7056552360000001</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>30</v>
       </c>
       <c r="H22" t="s">
@@ -2339,22 +2496,22 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>15.021000000000001</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>3.9780000000000002</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>15</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>4.019237886</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>30</v>
       </c>
       <c r="H23" t="s">
@@ -2389,22 +2546,22 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>20.75</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>1.4179999999999999</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>20.729490169999998</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>1.4683045109999999</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>30</v>
       </c>
       <c r="H24" t="s">
@@ -2439,22 +2596,22 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>26.885000000000002</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>0.104</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>26.864146099999999</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <v>0.164343139</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>30</v>
       </c>
       <c r="H25" t="s">
@@ -2489,22 +2646,22 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>33.146999999999998</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>0.104</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>33.135853900000001</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>0.164343139</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>30</v>
       </c>
       <c r="H26" t="s">
@@ -2539,22 +2696,22 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>39.290999999999997</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>1.4179999999999999</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>39.270509830000002</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>1.4683045109999999</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>30</v>
       </c>
       <c r="H27" t="s">
@@ -2589,22 +2746,22 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>45.011000000000003</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>3.95</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>45</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>4.019237886</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>30</v>
       </c>
       <c r="H28" t="s">
@@ -2639,22 +2796,22 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>50.094999999999999</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>7.665</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <v>50.073918190000001</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>7.7056552360000001</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>30</v>
       </c>
       <c r="H29" t="s">
@@ -2689,22 +2846,22 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>54.301000000000002</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>12.316000000000001</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <v>54.270509830000002</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <v>12.366442429999999</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>30</v>
       </c>
       <c r="H30" t="s">
@@ -2739,22 +2896,22 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>57.427</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>17.728000000000002</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <v>57.406363730000002</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <v>17.79790071</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <v>30</v>
       </c>
       <c r="H31" t="s">
@@ -2789,22 +2946,22 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>59.375</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>23.702999999999999</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>30.152000000000001</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>59.344428020000002</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <v>23.762649280000002</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <v>30</v>
       </c>
       <c r="H32" t="s">
@@ -2839,22 +2996,22 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>35.1</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>49.9</v>
       </c>
-      <c r="D33" s="5">
-        <v>35</v>
-      </c>
-      <c r="E33" s="5">
-        <v>35</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="D33" s="3">
+        <v>35</v>
+      </c>
+      <c r="E33" s="3">
+        <v>35</v>
+      </c>
+      <c r="F33" s="3">
         <v>50</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>35</v>
       </c>
       <c r="H33" t="s">
@@ -2889,22 +3046,22 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>34.067999999999998</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>52.881</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>34.045084969999998</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>52.938926260000002</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>35</v>
       </c>
       <c r="H34" t="s">
@@ -2939,22 +3096,22 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>31.577000000000002</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>54.704999999999998</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>31.545084970000001</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>54.755282579999999</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>35</v>
       </c>
       <c r="H35" t="s">
@@ -2989,22 +3146,22 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>28.488</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>54.686999999999998</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>28.454915029999999</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>54.755282579999999</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>35</v>
       </c>
       <c r="H36" t="s">
@@ -3039,22 +3196,22 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>25.952999999999999</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>52.87</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>25.954915029999999</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>52.938926260000002</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>35</v>
       </c>
       <c r="H37" t="s">
@@ -3089,22 +3246,22 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>25.1</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>49.9</v>
       </c>
-      <c r="D38" s="5">
-        <v>35</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="D38" s="3">
+        <v>35</v>
+      </c>
+      <c r="E38" s="3">
         <v>25</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>50</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>35</v>
       </c>
       <c r="H38" t="s">
@@ -3139,22 +3296,22 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>25.988</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>46.993000000000002</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>25.954915029999999</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>47.061073739999998</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>35</v>
       </c>
       <c r="H39" t="s">
@@ -3189,22 +3346,22 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>28.452999999999999</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>45.194000000000003</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <v>28.454915029999999</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="3">
         <v>45.244717420000001</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3">
         <v>35</v>
       </c>
       <c r="H40" t="s">
@@ -3239,22 +3396,22 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>31.577999999999999</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>45.177</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <v>31.545084970000001</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="3">
         <v>45.244717420000001</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="3">
         <v>35</v>
       </c>
       <c r="H41" t="s">
@@ -3289,22 +3446,22 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>34.042999999999999</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>47.011000000000003</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="3">
         <v>34.045084969999998</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="3">
         <v>47.061073739999998</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="3">
         <v>35</v>
       </c>
       <c r="H42" t="s">
@@ -3339,22 +3496,22 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>54.997999999999998</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>39.966999999999999</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="3">
         <v>55</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="3">
         <v>40</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="3">
         <v>35</v>
       </c>
       <c r="H43" t="s">
@@ -3389,22 +3546,22 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>54.061</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>42.889000000000003</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="3">
         <v>54.045084969999998</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="3">
         <v>42.938926260000002</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="3">
         <v>35</v>
       </c>
       <c r="H44" t="s">
@@ -3439,22 +3596,22 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>51.2</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>44.8</v>
       </c>
-      <c r="D45" s="5">
-        <v>35</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45" s="3">
+        <v>35</v>
+      </c>
+      <c r="E45" s="3">
         <v>51.545084969999998</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="3">
         <v>44.755282579999999</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="3">
         <v>35</v>
       </c>
       <c r="H45" t="s">
@@ -3489,22 +3646,22 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>45.97</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>42.905999999999999</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="3">
         <v>45.954915030000002</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="3">
         <v>42.938926260000002</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="3">
         <v>35</v>
       </c>
       <c r="H46" t="s">
@@ -3536,22 +3693,22 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>45.1</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>39.9</v>
       </c>
-      <c r="D47" s="5">
-        <v>35</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="D47" s="3">
+        <v>35</v>
+      </c>
+      <c r="E47" s="3">
         <v>45</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="3">
         <v>40</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="3">
         <v>35</v>
       </c>
       <c r="H47" t="s">
@@ -3583,22 +3740,22 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>45.988</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>36.993000000000002</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="3">
         <v>45.954915030000002</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="3">
         <v>37.061073739999998</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="3">
         <v>35</v>
       </c>
       <c r="H48" t="s">
@@ -3630,22 +3787,22 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>48.488</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>35.194000000000003</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="3">
         <v>48.454915030000002</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="3">
         <v>35.244717420000001</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="3">
         <v>35</v>
       </c>
       <c r="H49" t="s">
@@ -3677,22 +3834,22 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>51.542999999999999</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>35.194000000000003</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="3">
         <v>51.545084969999998</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="3">
         <v>35.244717420000001</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="3">
         <v>35</v>
       </c>
       <c r="H50" t="s">
@@ -3724,22 +3881,22 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>54.042999999999999</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>37.027999999999999</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="3">
         <v>54.045084969999998</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="3">
         <v>37.061073739999998</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="3">
         <v>35</v>
       </c>
       <c r="H51" t="s">
@@ -3771,22 +3928,22 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>55.1</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="D52" s="5">
-        <v>35</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="D52" s="3">
+        <v>35</v>
+      </c>
+      <c r="E52" s="3">
         <v>55</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="3">
         <v>20</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="3">
         <v>35</v>
       </c>
       <c r="H52" t="s">
@@ -3818,22 +3975,22 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>54.043999999999997</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="3">
         <v>22.904</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="3">
         <v>54.045084969999998</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="3">
         <v>22.938926259999999</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="3">
         <v>35</v>
       </c>
       <c r="H53" t="s">
@@ -3865,22 +4022,22 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>51.576999999999998</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>24.687999999999999</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="3">
         <v>51.545084969999998</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="3">
         <v>24.755282579999999</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="3">
         <v>35</v>
       </c>
       <c r="H54" t="s">
@@ -3903,22 +4060,22 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="3">
         <v>48.487000000000002</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="3">
         <v>24.704000000000001</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="3">
         <v>48.454915030000002</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="3">
         <v>24.755282579999999</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="3">
         <v>35</v>
       </c>
       <c r="H55" t="s">
@@ -3950,22 +4107,22 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="3">
         <v>45.954000000000001</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="3">
         <v>22.904</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="3">
         <v>45.954915030000002</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="3">
         <v>22.938926259999999</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="3">
         <v>35</v>
       </c>
       <c r="H56" t="s">
@@ -3997,22 +4154,22 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>45.015000000000001</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>19.981999999999999</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="3">
         <v>45</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="3">
         <v>20</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="3">
         <v>35</v>
       </c>
       <c r="H57" t="s">
@@ -4044,22 +4201,22 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>46.003</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="3">
         <v>17.010000000000002</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="3">
         <v>45.954915030000002</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="3">
         <v>17.061073740000001</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="3">
         <v>35</v>
       </c>
       <c r="H58" t="s">
@@ -4091,22 +4248,22 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>48.47</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="3">
         <v>15.194000000000001</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="3">
         <v>48.454915030000002</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="3">
         <v>15.244717420000001</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="3">
         <v>35</v>
       </c>
       <c r="H59" t="s">
@@ -4138,22 +4295,22 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="3">
         <v>51.56</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="3">
         <v>15.21</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="3">
         <v>51.545084969999998</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="3">
         <v>15.244717420000001</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="3">
         <v>35</v>
       </c>
       <c r="H60" t="s">
@@ -4185,22 +4342,22 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="3">
         <v>54.043999999999997</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="3">
         <v>17.044</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="3">
         <v>54.045084969999998</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="3">
         <v>17.061073740000001</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="3">
         <v>35</v>
       </c>
       <c r="H61" t="s">
@@ -4232,22 +4389,22 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="3">
         <v>35.015000000000001</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="3">
         <v>10.015000000000001</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E62" s="5">
-        <v>35</v>
-      </c>
-      <c r="F62" s="5">
+      <c r="E62" s="3">
+        <v>35</v>
+      </c>
+      <c r="F62" s="3">
         <v>10</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="3">
         <v>35</v>
       </c>
       <c r="H62" t="s">
@@ -4279,22 +4436,22 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="3">
         <v>34.06</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="3">
         <v>12.888</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="3">
         <v>34.045084969999998</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="3">
         <v>12.938926260000001</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="3">
         <v>35</v>
       </c>
       <c r="H63" t="s">
@@ -4326,22 +4483,22 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="3">
         <v>31.544</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="3">
         <v>14.721</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="3">
         <v>31.545084970000001</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="3">
         <v>14.755282579999999</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="3">
         <v>35</v>
       </c>
       <c r="H64" t="s">
@@ -4373,22 +4530,22 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="3">
         <v>28.47</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="3">
         <v>14.738</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="3">
         <v>28.454915029999999</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="3">
         <v>14.755282579999999</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="3">
         <v>35</v>
       </c>
       <c r="H65" t="s">
@@ -4420,22 +4577,22 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="3">
         <v>25.97</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="3">
         <v>12.904</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="3">
         <v>25.954915029999999</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="3">
         <v>12.938926260000001</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="3">
         <v>35</v>
       </c>
       <c r="H66" t="s">
@@ -4467,22 +4624,22 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="3">
         <v>25.1</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="3">
         <v>9.9</v>
       </c>
-      <c r="D67" s="5">
-        <v>35</v>
-      </c>
-      <c r="E67" s="5">
+      <c r="D67" s="3">
+        <v>35</v>
+      </c>
+      <c r="E67" s="3">
         <v>25</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="3">
         <v>10</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="3">
         <v>35</v>
       </c>
       <c r="H67" t="s">
@@ -4514,22 +4671,22 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="3">
         <v>25.97</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <v>7.0259999999999998</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="3">
         <v>25.954915029999999</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="3">
         <v>7.0610737390000002</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="3">
         <v>35</v>
       </c>
       <c r="H68" t="s">
@@ -4561,22 +4718,22 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="3">
         <v>28.47</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <v>5.194</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="3">
         <v>28.454915029999999</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="3">
         <v>5.2447174189999997</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="3">
         <v>35</v>
       </c>
       <c r="H69" t="s">
@@ -4608,22 +4765,22 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="3">
         <v>31.56</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="3">
         <v>5.194</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="3">
         <v>31.545084970000001</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="3">
         <v>5.2447174189999997</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="3">
         <v>35</v>
       </c>
       <c r="H70" t="s">
@@ -4655,22 +4812,22 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="3">
         <v>34.043999999999997</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="3">
         <v>7.0259999999999998</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="3">
         <v>34.045084969999998</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="3">
         <v>7.0610737390000002</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="3">
         <v>35</v>
       </c>
       <c r="H71" t="s">
@@ -4702,22 +4859,22 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="3">
         <v>15.1</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="D72" s="5">
-        <v>35</v>
-      </c>
-      <c r="E72" s="5">
+      <c r="D72" s="3">
+        <v>35</v>
+      </c>
+      <c r="E72" s="3">
         <v>15</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="3">
         <v>20</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="3">
         <v>35</v>
       </c>
       <c r="H72" t="s">
@@ -4749,22 +4906,22 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="3">
         <v>14.06</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="3">
         <v>22.920999999999999</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="3">
         <v>14.04508497</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="3">
         <v>22.938926259999999</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="3">
         <v>35</v>
       </c>
       <c r="H73" t="s">
@@ -4796,22 +4953,22 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="3">
         <v>11.56</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="3">
         <v>24.721</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="3">
         <v>11.54508497</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="3">
         <v>24.755282579999999</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="3">
         <v>35</v>
       </c>
       <c r="H74" t="s">
@@ -4843,22 +5000,22 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="3">
         <v>8.4870000000000001</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="3">
         <v>24.721</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="3">
         <v>8.4549150280000003</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="3">
         <v>24.755282579999999</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="3">
         <v>35</v>
       </c>
       <c r="H75" t="s">
@@ -4890,22 +5047,22 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="3">
         <v>5.9539999999999997</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="3">
         <v>22.872</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="3">
         <v>5.9549150280000003</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="3">
         <v>22.938926259999999</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="3">
         <v>35</v>
       </c>
       <c r="H76" t="s">
@@ -4937,22 +5094,22 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="D77" s="5">
-        <v>35</v>
-      </c>
-      <c r="E77" s="5">
+      <c r="D77" s="3">
+        <v>35</v>
+      </c>
+      <c r="E77" s="3">
         <v>5</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="3">
         <v>20</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="3">
         <v>35</v>
       </c>
       <c r="H77" t="s">
@@ -4984,22 +5141,22 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="3">
         <v>5.9880000000000004</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="3">
         <v>16.992999999999999</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="3">
         <v>5.9549150280000003</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="3">
         <v>17.061073740000001</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="3">
         <v>35</v>
       </c>
       <c r="H78" t="s">
@@ -5031,22 +5188,22 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="3">
         <v>8.48</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="3">
         <v>15.183999999999999</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="3">
         <v>8.4549150280000003</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="3">
         <v>15.244717420000001</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="3">
         <v>35</v>
       </c>
       <c r="H79" t="s">
@@ -5078,22 +5235,22 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="3">
         <v>11.571</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="3">
         <v>15.201000000000001</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="3">
         <v>11.54508497</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="3">
         <v>15.244717420000001</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="3">
         <v>35</v>
       </c>
       <c r="H80" t="s">
@@ -5125,22 +5282,22 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="3">
         <v>14.061999999999999</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="3">
         <v>17.026</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="3">
         <v>14.04508497</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="3">
         <v>17.061073740000001</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="3">
         <v>35</v>
       </c>
       <c r="H81" t="s">
@@ -5172,22 +5329,22 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="3">
         <v>15.1</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="3">
         <v>39.9</v>
       </c>
-      <c r="D82" s="5">
-        <v>35</v>
-      </c>
-      <c r="E82" s="5">
+      <c r="D82" s="3">
+        <v>35</v>
+      </c>
+      <c r="E82" s="3">
         <v>15</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="3">
         <v>40</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="3">
         <v>35</v>
       </c>
       <c r="H82" t="s">
@@ -5219,22 +5376,22 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="3">
         <v>14.07</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="3">
         <v>42.902999999999999</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="3">
         <v>14.04508497</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="3">
         <v>42.938926260000002</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="3">
         <v>35</v>
       </c>
       <c r="H83" t="s">
@@ -5266,22 +5423,22 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="3">
         <v>11.569000000000001</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="3">
         <v>44.712000000000003</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="3">
         <v>11.54508497</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="3">
         <v>44.755282579999999</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="3">
         <v>35</v>
       </c>
       <c r="H84" t="s">
@@ -5313,22 +5470,22 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="3">
         <v>8.4779999999999998</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="3">
         <v>44.704000000000001</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="3">
         <v>8.4549150280000003</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="3">
         <v>44.755282579999999</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="3">
         <v>35</v>
       </c>
       <c r="H85" t="s">
@@ -5360,22 +5517,22 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="3">
         <v>5.9779999999999998</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="3">
         <v>42.887</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="3">
         <v>5.9549150280000003</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="3">
         <v>42.938926260000002</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="3">
         <v>35</v>
       </c>
       <c r="H86" t="s">
@@ -5407,22 +5564,22 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="3">
         <v>39.9</v>
       </c>
-      <c r="D87" s="5">
-        <v>35</v>
-      </c>
-      <c r="E87" s="5">
+      <c r="D87" s="3">
+        <v>35</v>
+      </c>
+      <c r="E87" s="3">
         <v>5</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="3">
         <v>40</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="3">
         <v>35</v>
       </c>
       <c r="H87" t="s">
@@ -5454,22 +5611,22 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="3">
         <v>5.9859999999999998</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="3">
         <v>37.018000000000001</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="3">
         <v>5.9549150280000003</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="3">
         <v>37.061073739999998</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="3">
         <v>35</v>
       </c>
       <c r="H88" t="s">
@@ -5501,22 +5658,22 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="3">
         <v>8.4779999999999998</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="3">
         <v>35.201000000000001</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="3">
         <v>8.4549150280000003</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="3">
         <v>35.244717420000001</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="3">
         <v>35</v>
       </c>
       <c r="H89" t="s">
@@ -5548,22 +5705,22 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="3">
         <v>11.569000000000001</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="3">
         <v>35.192999999999998</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="3">
         <v>11.54508497</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="3">
         <v>35.244717420000001</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="3">
         <v>35</v>
       </c>
       <c r="H90" t="s">
@@ -5595,22 +5752,22 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="3">
         <v>14.068</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="3">
         <v>37.018000000000001</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="3">
         <v>35.152000000000001</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="3">
         <v>14.04508497</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="3">
         <v>37.061073739999998</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="3">
         <v>35</v>
       </c>
       <c r="H91" t="s">
@@ -5642,22 +5799,22 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="3">
         <v>40.1</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="3">
         <v>29.9</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="3">
         <v>40</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="3">
         <v>40</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="3">
         <v>30</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="3">
         <v>40</v>
       </c>
       <c r="H92" t="s">
@@ -5680,22 +5837,22 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="3">
         <v>38.121000000000002</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="3">
         <v>35.834000000000003</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="3">
         <v>40.152000000000001</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="3">
         <v>38.090169940000003</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="3">
         <v>35.877852519999998</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="3">
         <v>40</v>
       </c>
       <c r="H93" t="s">
@@ -5718,22 +5875,22 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="3">
         <v>33.121000000000002</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="3">
         <v>39.475000000000001</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="3">
         <v>40.152000000000001</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="3">
         <v>33.090169940000003</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="3">
         <v>39.510565159999999</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="3">
         <v>40</v>
       </c>
       <c r="H94" t="s">
@@ -5756,22 +5913,22 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="3">
         <v>26.931999999999999</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="3">
         <v>39.482999999999997</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="3">
         <v>40.152000000000001</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="3">
         <v>26.909830060000001</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="3">
         <v>39.510565159999999</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="3">
         <v>40</v>
       </c>
       <c r="H95" t="s">
@@ -5794,22 +5951,22 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="3">
         <v>21.940999999999999</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="3">
         <v>35.834000000000003</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="3">
         <v>40.152000000000001</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="3">
         <v>21.909830060000001</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="3">
         <v>35.877852519999998</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="3">
         <v>40</v>
       </c>
       <c r="H96" t="s">
@@ -5832,22 +5989,22 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="3">
         <v>20.100000000000001</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="3">
         <v>29.9</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="3">
         <v>40</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="3">
         <v>20</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="3">
         <v>30</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="3">
         <v>40</v>
       </c>
       <c r="H97" t="s">
@@ -5868,7 +6025,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -5879,23 +6035,6777 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:L97">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S77" sqref="A77:S77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="38.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>59.994999999999997</v>
+      </c>
+      <c r="F3" s="4">
+        <v>29.998999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K3" s="4">
+        <f>L3*N3*P3</f>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" t="b">
+        <f t="shared" ref="R3" si="0">IF(OR(J3*0.95&gt;I3,J3*1.05&gt;I3),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <f>IF(AND(K3&gt;(J3*0.96),K3&lt;(J3*1.04)),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <f>OR(R3,S3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>59.344428020000002</v>
+      </c>
+      <c r="C4" s="4">
+        <v>36.237350720000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>59.331000000000003</v>
+      </c>
+      <c r="F4" s="4">
+        <v>36.198999999999998</v>
+      </c>
+      <c r="G4" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J4" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K67" si="1">L4*N4*P4</f>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" t="b">
+        <f t="shared" ref="R4:R26" si="2">IF(OR(J4*0.95&gt;I4,J4*1.05&gt;I4),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <f t="shared" ref="S4:S26" si="3">IF(AND(K4&gt;(J4*0.96),K4&lt;(J4*1.04)),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" t="b">
+        <f t="shared" ref="T4:T26" si="4">OR(R4,S4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>57.406363730000002</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42.20209929</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4">
+        <v>57.436</v>
+      </c>
+      <c r="F5" s="4">
+        <v>42.142000000000003</v>
+      </c>
+      <c r="G5" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T5" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>54.270509830000002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>47.633557570000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>54.290999999999997</v>
+      </c>
+      <c r="F6" s="4">
+        <v>47.582999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>50.073918190000001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>52.294344760000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>50.094999999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <v>52.244</v>
+      </c>
+      <c r="G7" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4">
+        <v>55.980762110000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45.021000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>55.93</v>
+      </c>
+      <c r="G8" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>39.270509830000002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>58.531695489999997</v>
+      </c>
+      <c r="D9" s="4">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <v>39.281999999999996</v>
+      </c>
+      <c r="F9" s="4">
+        <v>58.481000000000002</v>
+      </c>
+      <c r="G9" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J9" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>33.135853900000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>59.83565686</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>33.165999999999997</v>
+      </c>
+      <c r="F10" s="4">
+        <v>59.765999999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J10" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>26.864146099999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>59.83565686</v>
+      </c>
+      <c r="D11" s="4">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4">
+        <v>26.885000000000002</v>
+      </c>
+      <c r="F11" s="4">
+        <v>59.765999999999998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20.729490169999998</v>
+      </c>
+      <c r="C12" s="4">
+        <v>58.531695489999997</v>
+      </c>
+      <c r="D12" s="4">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4">
+        <v>20.75</v>
+      </c>
+      <c r="F12" s="4">
+        <v>58.491</v>
+      </c>
+      <c r="G12" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J12" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T12" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>55.980762110000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4">
+        <v>15.03</v>
+      </c>
+      <c r="F13" s="4">
+        <v>55.920999999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>9.9260818089999994</v>
+      </c>
+      <c r="C14" s="4">
+        <v>52.294344760000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9.9469999999999992</v>
+      </c>
+      <c r="F14" s="4">
+        <v>52.244</v>
+      </c>
+      <c r="G14" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J14" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5.729490169</v>
+      </c>
+      <c r="C15" s="4">
+        <v>47.633557570000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="F15" s="4">
+        <v>47.582999999999998</v>
+      </c>
+      <c r="G15" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2.5936362709999998</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42.20209929</v>
+      </c>
+      <c r="D16" s="4">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>42.131999999999998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J16" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T16" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.655571978</v>
+      </c>
+      <c r="C17" s="4">
+        <v>36.237350720000002</v>
+      </c>
+      <c r="D17" s="4">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F17" s="4">
+        <v>36.195999999999998</v>
+      </c>
+      <c r="G17" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J17" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S17" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T17" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>29.959</v>
+      </c>
+      <c r="G18" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J18" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T18" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.655571978</v>
+      </c>
+      <c r="C19" s="4">
+        <v>23.762649280000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F19" s="4">
+        <v>23.693000000000001</v>
+      </c>
+      <c r="G19" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J19" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T19" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2.5936362709999998</v>
+      </c>
+      <c r="C20" s="4">
+        <v>17.79790071</v>
+      </c>
+      <c r="D20" s="4">
+        <v>30</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="F20" s="4">
+        <v>17.738</v>
+      </c>
+      <c r="G20" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J20" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T20" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.729490169</v>
+      </c>
+      <c r="C21" s="4">
+        <v>12.366442429999999</v>
+      </c>
+      <c r="D21" s="4">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="F21" s="4">
+        <v>12.305999999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J21" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>9.9260818089999994</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7.7056552360000001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9.9469999999999992</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7.6550000000000002</v>
+      </c>
+      <c r="G22" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.019237886</v>
+      </c>
+      <c r="D23" s="4">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4">
+        <v>15.021000000000001</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.9780000000000002</v>
+      </c>
+      <c r="G23" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J23" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T23" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20.729490169999998</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.4683045109999999</v>
+      </c>
+      <c r="D24" s="4">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4">
+        <v>20.75</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="G24" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J24" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S24" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T24" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>26.864146099999999</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.164343139</v>
+      </c>
+      <c r="D25" s="4">
+        <v>30</v>
+      </c>
+      <c r="E25" s="4">
+        <v>26.885000000000002</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.104</v>
+      </c>
+      <c r="G25" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J25" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S25" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>33.135853900000001</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.164343139</v>
+      </c>
+      <c r="D26" s="4">
+        <v>30</v>
+      </c>
+      <c r="E26" s="4">
+        <v>33.146999999999998</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.104</v>
+      </c>
+      <c r="G26" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J26" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>39.270509830000002</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.4683045109999999</v>
+      </c>
+      <c r="D27" s="4">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4">
+        <v>39.290999999999997</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="G27" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J27" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R27" t="b">
+        <f t="shared" ref="R27:R90" si="5">IF(OR(J27*0.95&gt;I27,J27*1.05&gt;I27),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S27" t="b">
+        <f t="shared" ref="S27:S90" si="6">IF(AND(K27&gt;(J27*0.96),K27&lt;(J27*1.04)),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <f t="shared" ref="T27:T90" si="7">OR(R27,S27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4.019237886</v>
+      </c>
+      <c r="D28" s="4">
+        <v>30</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45.011000000000003</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="G28" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J28" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R28" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S28" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T28" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>50.073918190000001</v>
+      </c>
+      <c r="C29" s="4">
+        <v>7.7056552360000001</v>
+      </c>
+      <c r="D29" s="4">
+        <v>30</v>
+      </c>
+      <c r="E29" s="4">
+        <v>50.094999999999999</v>
+      </c>
+      <c r="F29" s="4">
+        <v>7.665</v>
+      </c>
+      <c r="G29" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J29" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R29" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S29" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T29" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>54.270509830000002</v>
+      </c>
+      <c r="C30" s="4">
+        <v>12.366442429999999</v>
+      </c>
+      <c r="D30" s="4">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4">
+        <v>54.301000000000002</v>
+      </c>
+      <c r="F30" s="4">
+        <v>12.316000000000001</v>
+      </c>
+      <c r="G30" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R30" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S30" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T30" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>57.406363730000002</v>
+      </c>
+      <c r="C31" s="4">
+        <v>17.79790071</v>
+      </c>
+      <c r="D31" s="4">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4">
+        <v>57.427</v>
+      </c>
+      <c r="F31" s="4">
+        <v>17.728000000000002</v>
+      </c>
+      <c r="G31" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J31" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R31" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S31" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T31" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>59.344428020000002</v>
+      </c>
+      <c r="C32" s="4">
+        <v>23.762649280000002</v>
+      </c>
+      <c r="D32" s="4">
+        <v>30</v>
+      </c>
+      <c r="E32" s="4">
+        <v>59.375</v>
+      </c>
+      <c r="F32" s="4">
+        <v>23.702999999999999</v>
+      </c>
+      <c r="G32" s="4">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="4">
+        <v>4.9563795629999996</v>
+      </c>
+      <c r="J32" s="6">
+        <v>4.9592921746879703</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>4.9769237430839901</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R32" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S32" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T32" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4">
+        <v>50</v>
+      </c>
+      <c r="D33" s="4">
+        <v>35</v>
+      </c>
+      <c r="E33" s="4">
+        <v>35.1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="G33" s="4">
+        <v>35</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J33" s="6">
+        <v>5.5836312190652304</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4101474712438229</v>
+      </c>
+      <c r="L33">
+        <v>2.3732877532468102</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P33">
+        <v>1.6282859276552999</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R33" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S33" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T33" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f>K33*0.97</f>
+        <v>5.2478430471065076</v>
+      </c>
+      <c r="V33">
+        <f>K33*1.03</f>
+        <v>5.5724518953811382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4">
+        <v>34.045084969999998</v>
+      </c>
+      <c r="C34" s="4">
+        <v>52.938926260000002</v>
+      </c>
+      <c r="D34" s="4">
+        <v>35</v>
+      </c>
+      <c r="E34" s="4">
+        <v>34.067999999999998</v>
+      </c>
+      <c r="F34" s="4">
+        <v>52.881</v>
+      </c>
+      <c r="G34" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J34" s="6">
+        <v>5.5836312190652304</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="1"/>
+        <v>6.459031546056754</v>
+      </c>
+      <c r="L34">
+        <v>2.65049824574219</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R34" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S34" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T34" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34:U97" si="8">K34*0.97</f>
+        <v>6.2652605996750514</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ref="V34:V97" si="9">K34*1.03</f>
+        <v>6.6528024924384566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>31.545084970000001</v>
+      </c>
+      <c r="C35" s="4">
+        <v>54.755282579999999</v>
+      </c>
+      <c r="D35" s="4">
+        <v>35</v>
+      </c>
+      <c r="E35" s="4">
+        <v>31.577000000000002</v>
+      </c>
+      <c r="F35" s="4">
+        <v>54.704999999999998</v>
+      </c>
+      <c r="G35" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J35" s="6">
+        <v>5.5836312190652304</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="1"/>
+        <v>6.459031546056754</v>
+      </c>
+      <c r="L35">
+        <v>2.65049824574219</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P35">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R35" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S35" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T35" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="8"/>
+        <v>6.2652605996750514</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="9"/>
+        <v>6.6528024924384566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>28.454915029999999</v>
+      </c>
+      <c r="C36" s="4">
+        <v>54.755282579999999</v>
+      </c>
+      <c r="D36" s="4">
+        <v>35</v>
+      </c>
+      <c r="E36" s="4">
+        <v>28.488</v>
+      </c>
+      <c r="F36" s="4">
+        <v>54.686999999999998</v>
+      </c>
+      <c r="G36" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J36" s="6">
+        <v>5.5836312190652304</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="1"/>
+        <v>6.459031546056754</v>
+      </c>
+      <c r="L36">
+        <v>2.65049824574219</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P36">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R36" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S36" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T36" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="8"/>
+        <v>6.2652605996750514</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="9"/>
+        <v>6.6528024924384566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <v>25.954915029999999</v>
+      </c>
+      <c r="C37" s="4">
+        <v>52.938926260000002</v>
+      </c>
+      <c r="D37" s="4">
+        <v>35</v>
+      </c>
+      <c r="E37" s="4">
+        <v>25.952999999999999</v>
+      </c>
+      <c r="F37" s="4">
+        <v>52.87</v>
+      </c>
+      <c r="G37" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J37" s="6">
+        <v>5.5836312190652304</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="1"/>
+        <v>6.459031546056754</v>
+      </c>
+      <c r="L37">
+        <v>2.65049824574219</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P37">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R37" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S37" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T37" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="8"/>
+        <v>6.2652605996750514</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="9"/>
+        <v>6.6528024924384566</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <v>25</v>
+      </c>
+      <c r="C38" s="4">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4">
+        <v>35</v>
+      </c>
+      <c r="E38" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="G38" s="4">
+        <v>35</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J38" s="6">
+        <v>5.5836312190652304</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4101474712438229</v>
+      </c>
+      <c r="L38">
+        <v>2.3732877532468102</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P38">
+        <v>1.6282859276552999</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T38" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="8"/>
+        <v>5.2478430471065076</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="9"/>
+        <v>5.5724518953811382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
+        <v>25.954915029999999</v>
+      </c>
+      <c r="C39" s="4">
+        <v>47.061073739999998</v>
+      </c>
+      <c r="D39" s="4">
+        <v>35</v>
+      </c>
+      <c r="E39" s="4">
+        <v>25.988</v>
+      </c>
+      <c r="F39" s="4">
+        <v>46.993000000000002</v>
+      </c>
+      <c r="G39" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J39" s="6">
+        <v>5.5836312190652304</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="1"/>
+        <v>6.459031546056754</v>
+      </c>
+      <c r="L39">
+        <v>2.65049824574219</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P39">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S39" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T39" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="8"/>
+        <v>6.2652605996750514</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="9"/>
+        <v>6.6528024924384566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>28.454915029999999</v>
+      </c>
+      <c r="C40" s="4">
+        <v>45.244717420000001</v>
+      </c>
+      <c r="D40" s="4">
+        <v>35</v>
+      </c>
+      <c r="E40" s="4">
+        <v>28.452999999999999</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45.194000000000003</v>
+      </c>
+      <c r="G40" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J40" s="6">
+        <v>5.5836312190652304</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="1"/>
+        <v>6.459031546056754</v>
+      </c>
+      <c r="L40">
+        <v>2.65049824574219</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R40" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S40" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T40" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="8"/>
+        <v>6.2652605996750514</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="9"/>
+        <v>6.6528024924384566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>31.545084970000001</v>
+      </c>
+      <c r="C41" s="4">
+        <v>45.244717420000001</v>
+      </c>
+      <c r="D41" s="4">
+        <v>35</v>
+      </c>
+      <c r="E41" s="4">
+        <v>31.577999999999999</v>
+      </c>
+      <c r="F41" s="4">
+        <v>45.177</v>
+      </c>
+      <c r="G41" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J41" s="6">
+        <v>5.5836312190652304</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="1"/>
+        <v>6.459031546056754</v>
+      </c>
+      <c r="L41">
+        <v>2.65049824574219</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P41">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R41" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S41" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T41" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="8"/>
+        <v>6.2652605996750514</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="9"/>
+        <v>6.6528024924384566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <v>34.045084969999998</v>
+      </c>
+      <c r="C42" s="4">
+        <v>47.061073739999998</v>
+      </c>
+      <c r="D42" s="4">
+        <v>35</v>
+      </c>
+      <c r="E42" s="4">
+        <v>34.042999999999999</v>
+      </c>
+      <c r="F42" s="4">
+        <v>47.011000000000003</v>
+      </c>
+      <c r="G42" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J42" s="6">
+        <v>5.5836312190652304</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="1"/>
+        <v>6.459031546056754</v>
+      </c>
+      <c r="L42">
+        <v>2.65049824574219</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R42" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S42" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T42" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="8"/>
+        <v>6.2652605996750514</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="9"/>
+        <v>6.6528024924384566</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <v>55</v>
+      </c>
+      <c r="C43" s="4">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4">
+        <v>35</v>
+      </c>
+      <c r="E43" s="4">
+        <v>54.997999999999998</v>
+      </c>
+      <c r="F43" s="4">
+        <v>39.966999999999999</v>
+      </c>
+      <c r="G43" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J43" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L43">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S43" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T43" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <v>54.045084969999998</v>
+      </c>
+      <c r="C44" s="4">
+        <v>42.938926260000002</v>
+      </c>
+      <c r="D44" s="4">
+        <v>35</v>
+      </c>
+      <c r="E44" s="4">
+        <v>54.061</v>
+      </c>
+      <c r="F44" s="4">
+        <v>42.889000000000003</v>
+      </c>
+      <c r="G44" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J44" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L44">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R44" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S44" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T44" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4">
+        <v>51.545084969999998</v>
+      </c>
+      <c r="C45" s="4">
+        <v>44.755282579999999</v>
+      </c>
+      <c r="D45" s="4">
+        <v>35</v>
+      </c>
+      <c r="E45" s="4">
+        <v>51.2</v>
+      </c>
+      <c r="F45" s="4">
+        <v>44.8</v>
+      </c>
+      <c r="G45" s="4">
+        <v>35</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J45" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4023160530471301</v>
+      </c>
+      <c r="L45">
+        <v>2.36985231844664</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N45" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45">
+        <v>1.6282859276552999</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R45" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S45" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T45" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="8"/>
+        <v>5.2402465714557165</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="9"/>
+        <v>5.5643855346385438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>45.954915030000002</v>
+      </c>
+      <c r="C46" s="4">
+        <v>42.938926260000002</v>
+      </c>
+      <c r="D46" s="4">
+        <v>35</v>
+      </c>
+      <c r="E46" s="4">
+        <v>45.97</v>
+      </c>
+      <c r="F46" s="4">
+        <v>42.905999999999999</v>
+      </c>
+      <c r="G46" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J46" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L46">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R46" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S46" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>45</v>
+      </c>
+      <c r="C47" s="4">
+        <v>40</v>
+      </c>
+      <c r="D47" s="4">
+        <v>35</v>
+      </c>
+      <c r="E47" s="4">
+        <v>45.1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="G47" s="4">
+        <v>35</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J47" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4023160530471301</v>
+      </c>
+      <c r="L47">
+        <v>2.36985231844664</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47">
+        <v>1.6282859276552999</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R47" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S47" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T47" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="8"/>
+        <v>5.2402465714557165</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="9"/>
+        <v>5.5643855346385438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>45.954915030000002</v>
+      </c>
+      <c r="C48" s="4">
+        <v>37.061073739999998</v>
+      </c>
+      <c r="D48" s="4">
+        <v>35</v>
+      </c>
+      <c r="E48" s="4">
+        <v>45.988</v>
+      </c>
+      <c r="F48" s="4">
+        <v>36.993000000000002</v>
+      </c>
+      <c r="G48" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J48" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L48">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N48" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P48">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R48" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S48" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>48.454915030000002</v>
+      </c>
+      <c r="C49" s="4">
+        <v>35.244717420000001</v>
+      </c>
+      <c r="D49" s="4">
+        <v>35</v>
+      </c>
+      <c r="E49" s="4">
+        <v>48.488</v>
+      </c>
+      <c r="F49" s="4">
+        <v>35.194000000000003</v>
+      </c>
+      <c r="G49" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J49" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L49">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N49" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R49" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S49" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T49" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>51.545084969999998</v>
+      </c>
+      <c r="C50" s="4">
+        <v>35.244717420000001</v>
+      </c>
+      <c r="D50" s="4">
+        <v>35</v>
+      </c>
+      <c r="E50" s="4">
+        <v>51.542999999999999</v>
+      </c>
+      <c r="F50" s="4">
+        <v>35.194000000000003</v>
+      </c>
+      <c r="G50" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J50" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L50">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P50">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R50" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S50" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T50" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>54.045084969999998</v>
+      </c>
+      <c r="C51" s="4">
+        <v>37.061073739999998</v>
+      </c>
+      <c r="D51" s="4">
+        <v>35</v>
+      </c>
+      <c r="E51" s="4">
+        <v>54.042999999999999</v>
+      </c>
+      <c r="F51" s="4">
+        <v>37.027999999999999</v>
+      </c>
+      <c r="G51" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J51" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L51">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N51" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P51">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R51" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S51" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T51" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>55</v>
+      </c>
+      <c r="C52" s="4">
+        <v>20</v>
+      </c>
+      <c r="D52" s="4">
+        <v>35</v>
+      </c>
+      <c r="E52" s="4">
+        <v>55.1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G52" s="4">
+        <v>35</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J52" s="6">
+        <v>5.5819765771993399</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4023160530471301</v>
+      </c>
+      <c r="L52">
+        <v>2.36985231844664</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N52" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52">
+        <v>1.6282859276552999</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R52" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S52" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T52" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="8"/>
+        <v>5.2402465714557165</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="9"/>
+        <v>5.5643855346385438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>54.045084969999998</v>
+      </c>
+      <c r="C53" s="4">
+        <v>22.938926259999999</v>
+      </c>
+      <c r="D53" s="4">
+        <v>35</v>
+      </c>
+      <c r="E53" s="4">
+        <v>54.043999999999997</v>
+      </c>
+      <c r="F53" s="4">
+        <v>22.904</v>
+      </c>
+      <c r="G53" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J53" s="6">
+        <v>5.5819765771993399</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L53">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P53">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R53" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S53" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T53" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>51.545084969999998</v>
+      </c>
+      <c r="C54" s="4">
+        <v>24.755282579999999</v>
+      </c>
+      <c r="D54" s="4">
+        <v>35</v>
+      </c>
+      <c r="E54" s="4">
+        <v>51.576999999999998</v>
+      </c>
+      <c r="F54" s="4">
+        <v>24.687999999999999</v>
+      </c>
+      <c r="G54" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9145177507475655</v>
+      </c>
+      <c r="L54">
+        <v>2.96445763786756</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N54" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P54">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S54" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T54" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="8"/>
+        <v>6.7070822182251382</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="9"/>
+        <v>7.1219532832699928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>48.454915030000002</v>
+      </c>
+      <c r="C55" s="4">
+        <v>24.755282579999999</v>
+      </c>
+      <c r="D55" s="4">
+        <v>35</v>
+      </c>
+      <c r="E55" s="4">
+        <v>48.487000000000002</v>
+      </c>
+      <c r="F55" s="4">
+        <v>24.704000000000001</v>
+      </c>
+      <c r="G55" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J55" s="6">
+        <v>5.5819765771993399</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L55">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P55">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R55" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S55" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T55" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>45.954915030000002</v>
+      </c>
+      <c r="C56" s="4">
+        <v>22.938926259999999</v>
+      </c>
+      <c r="D56" s="4">
+        <v>35</v>
+      </c>
+      <c r="E56" s="4">
+        <v>45.954000000000001</v>
+      </c>
+      <c r="F56" s="4">
+        <v>22.904</v>
+      </c>
+      <c r="G56" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J56" s="6">
+        <v>5.5819765771993399</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L56">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P56">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R56" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S56" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T56" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>45</v>
+      </c>
+      <c r="C57" s="4">
+        <v>20</v>
+      </c>
+      <c r="D57" s="4">
+        <v>35</v>
+      </c>
+      <c r="E57" s="4">
+        <v>45.015000000000001</v>
+      </c>
+      <c r="F57" s="4">
+        <v>19.981999999999999</v>
+      </c>
+      <c r="G57" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I57" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J57" s="6">
+        <v>5.5819765771993399</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L57">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P57">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R57" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S57" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T57" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <v>45.954915030000002</v>
+      </c>
+      <c r="C58" s="4">
+        <v>17.061073740000001</v>
+      </c>
+      <c r="D58" s="4">
+        <v>35</v>
+      </c>
+      <c r="E58" s="4">
+        <v>46.003</v>
+      </c>
+      <c r="F58" s="4">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="G58" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J58" s="6">
+        <v>5.5819765771993399</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L58">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N58" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P58">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R58" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S58" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T58" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>48.454915030000002</v>
+      </c>
+      <c r="C59" s="4">
+        <v>15.244717420000001</v>
+      </c>
+      <c r="D59" s="4">
+        <v>35</v>
+      </c>
+      <c r="E59" s="4">
+        <v>48.47</v>
+      </c>
+      <c r="F59" s="4">
+        <v>15.194000000000001</v>
+      </c>
+      <c r="G59" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J59" s="6">
+        <v>5.5819765771993399</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L59">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N59" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P59">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R59" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S59" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T59" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>51.545084969999998</v>
+      </c>
+      <c r="C60" s="4">
+        <v>15.244717420000001</v>
+      </c>
+      <c r="D60" s="4">
+        <v>35</v>
+      </c>
+      <c r="E60" s="4">
+        <v>51.56</v>
+      </c>
+      <c r="F60" s="4">
+        <v>15.21</v>
+      </c>
+      <c r="G60" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I60" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J60" s="6">
+        <v>5.5819765771993399</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L60">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N60" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P60">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R60" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S60" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T60" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>54.045084969999998</v>
+      </c>
+      <c r="C61" s="4">
+        <v>17.061073740000001</v>
+      </c>
+      <c r="D61" s="4">
+        <v>35</v>
+      </c>
+      <c r="E61" s="4">
+        <v>54.043999999999997</v>
+      </c>
+      <c r="F61" s="4">
+        <v>17.044</v>
+      </c>
+      <c r="G61" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J61" s="6">
+        <v>5.5819765771993399</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L61">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P61">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R61" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S61" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T61" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <v>35</v>
+      </c>
+      <c r="C62" s="4">
+        <v>10</v>
+      </c>
+      <c r="D62" s="4">
+        <v>35</v>
+      </c>
+      <c r="E62" s="4">
+        <v>35.015000000000001</v>
+      </c>
+      <c r="F62" s="4">
+        <v>10.015000000000001</v>
+      </c>
+      <c r="G62" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I62" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J62" s="6">
+        <v>5.5833251450881001</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4569400476083283</v>
+      </c>
+      <c r="L62">
+        <v>2.6496399881335999</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N62" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P62">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R62" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S62" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T62" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="8"/>
+        <v>6.2632318461800782</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="9"/>
+        <v>6.6506482490365784</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>34.045084969999998</v>
+      </c>
+      <c r="C63" s="4">
+        <v>12.938926260000001</v>
+      </c>
+      <c r="D63" s="4">
+        <v>35</v>
+      </c>
+      <c r="E63" s="4">
+        <v>34.06</v>
+      </c>
+      <c r="F63" s="4">
+        <v>12.888</v>
+      </c>
+      <c r="G63" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J63" s="6">
+        <v>5.5833251450881001</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4569400476083283</v>
+      </c>
+      <c r="L63">
+        <v>2.6496399881335999</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P63">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R63" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S63" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T63" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="8"/>
+        <v>6.2632318461800782</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="9"/>
+        <v>6.6506482490365784</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4">
+        <v>31.545084970000001</v>
+      </c>
+      <c r="C64" s="4">
+        <v>14.755282579999999</v>
+      </c>
+      <c r="D64" s="4">
+        <v>35</v>
+      </c>
+      <c r="E64" s="4">
+        <v>31.544</v>
+      </c>
+      <c r="F64" s="4">
+        <v>14.721</v>
+      </c>
+      <c r="G64" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J64" s="6">
+        <v>5.5833251450881001</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4569400476083283</v>
+      </c>
+      <c r="L64">
+        <v>2.6496399881335999</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P64">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R64" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S64" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T64" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="8"/>
+        <v>6.2632318461800782</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="9"/>
+        <v>6.6506482490365784</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
+        <v>28.454915029999999</v>
+      </c>
+      <c r="C65" s="4">
+        <v>14.755282579999999</v>
+      </c>
+      <c r="D65" s="4">
+        <v>35</v>
+      </c>
+      <c r="E65" s="4">
+        <v>28.47</v>
+      </c>
+      <c r="F65" s="4">
+        <v>14.738</v>
+      </c>
+      <c r="G65" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J65" s="6">
+        <v>5.5833251450881001</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4569400476083283</v>
+      </c>
+      <c r="L65">
+        <v>2.6496399881335999</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P65">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R65" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S65" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T65" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="8"/>
+        <v>6.2632318461800782</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="9"/>
+        <v>6.6506482490365784</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4">
+        <v>25.954915029999999</v>
+      </c>
+      <c r="C66" s="4">
+        <v>12.938926260000001</v>
+      </c>
+      <c r="D66" s="4">
+        <v>35</v>
+      </c>
+      <c r="E66" s="4">
+        <v>25.97</v>
+      </c>
+      <c r="F66" s="4">
+        <v>12.904</v>
+      </c>
+      <c r="G66" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J66" s="6">
+        <v>5.5833251450881001</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4569400476083283</v>
+      </c>
+      <c r="L66">
+        <v>2.6496399881335999</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P66">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R66" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S66" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T66" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="8"/>
+        <v>6.2632318461800782</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="9"/>
+        <v>6.6506482490365784</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4">
+        <v>25</v>
+      </c>
+      <c r="C67" s="4">
+        <v>10</v>
+      </c>
+      <c r="D67" s="4">
+        <v>35</v>
+      </c>
+      <c r="E67" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="G67" s="4">
+        <v>35</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J67" s="6">
+        <v>5.5833251450881001</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4094121940029805</v>
+      </c>
+      <c r="L67">
+        <v>2.3729652066840399</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P67">
+        <v>1.6282859276552999</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R67" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S67" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T67" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="8"/>
+        <v>5.2471298281828913</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="9"/>
+        <v>5.5716945598230696</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
+        <v>25.954915029999999</v>
+      </c>
+      <c r="C68" s="4">
+        <v>7.0610737390000002</v>
+      </c>
+      <c r="D68" s="4">
+        <v>35</v>
+      </c>
+      <c r="E68" s="4">
+        <v>25.97</v>
+      </c>
+      <c r="F68" s="4">
+        <v>7.0259999999999998</v>
+      </c>
+      <c r="G68" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J68" s="6">
+        <v>5.5833251450881001</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" ref="K68:K97" si="10">L68*N68*P68</f>
+        <v>6.4569400476083283</v>
+      </c>
+      <c r="L68">
+        <v>2.6496399881335999</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P68">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R68" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S68" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T68" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="8"/>
+        <v>6.2632318461800782</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="9"/>
+        <v>6.6506482490365784</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>28.454915029999999</v>
+      </c>
+      <c r="C69" s="4">
+        <v>5.2447174189999997</v>
+      </c>
+      <c r="D69" s="4">
+        <v>35</v>
+      </c>
+      <c r="E69" s="4">
+        <v>28.47</v>
+      </c>
+      <c r="F69" s="4">
+        <v>5.194</v>
+      </c>
+      <c r="G69" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J69" s="6">
+        <v>5.5833251450881001</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4569400476083283</v>
+      </c>
+      <c r="L69">
+        <v>2.6496399881335999</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N69" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P69">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R69" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S69" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T69" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="8"/>
+        <v>6.2632318461800782</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="9"/>
+        <v>6.6506482490365784</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>31.545084970000001</v>
+      </c>
+      <c r="C70" s="4">
+        <v>5.2447174189999997</v>
+      </c>
+      <c r="D70" s="4">
+        <v>35</v>
+      </c>
+      <c r="E70" s="4">
+        <v>31.56</v>
+      </c>
+      <c r="F70" s="4">
+        <v>5.194</v>
+      </c>
+      <c r="G70" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J70" s="6">
+        <v>5.5833251450881001</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4569400476083283</v>
+      </c>
+      <c r="L70">
+        <v>2.6496399881335999</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N70" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P70">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R70" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S70" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T70" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="8"/>
+        <v>6.2632318461800782</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="9"/>
+        <v>6.6506482490365784</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <v>34.045084969999998</v>
+      </c>
+      <c r="C71" s="4">
+        <v>7.0610737390000002</v>
+      </c>
+      <c r="D71" s="4">
+        <v>35</v>
+      </c>
+      <c r="E71" s="4">
+        <v>34.043999999999997</v>
+      </c>
+      <c r="F71" s="4">
+        <v>7.0259999999999998</v>
+      </c>
+      <c r="G71" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I71" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J71" s="6">
+        <v>5.5833251450881001</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4569400476083283</v>
+      </c>
+      <c r="L71">
+        <v>2.6496399881335999</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N71" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P71">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R71" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S71" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T71" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="8"/>
+        <v>6.2632318461800782</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="9"/>
+        <v>6.6506482490365784</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4">
+        <v>15</v>
+      </c>
+      <c r="C72" s="4">
+        <v>20</v>
+      </c>
+      <c r="D72" s="4">
+        <v>35</v>
+      </c>
+      <c r="E72" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G72" s="4">
+        <v>35</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J72" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="10"/>
+        <v>5.4023160530471301</v>
+      </c>
+      <c r="L72">
+        <v>2.36985231844664</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P72">
+        <v>1.6282859276552999</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R72" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S72" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T72" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="8"/>
+        <v>5.2402465714557165</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="9"/>
+        <v>5.5643855346385438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4">
+        <v>14.04508497</v>
+      </c>
+      <c r="C73" s="4">
+        <v>22.938926259999999</v>
+      </c>
+      <c r="D73" s="4">
+        <v>35</v>
+      </c>
+      <c r="E73" s="4">
+        <v>14.06</v>
+      </c>
+      <c r="F73" s="4">
+        <v>22.920999999999999</v>
+      </c>
+      <c r="G73" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J73" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L73">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N73" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P73">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R73" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S73" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T73" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4">
+        <v>11.54508497</v>
+      </c>
+      <c r="C74" s="4">
+        <v>24.755282579999999</v>
+      </c>
+      <c r="D74" s="4">
+        <v>35</v>
+      </c>
+      <c r="E74" s="4">
+        <v>11.56</v>
+      </c>
+      <c r="F74" s="4">
+        <v>24.721</v>
+      </c>
+      <c r="G74" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J74" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L74">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P74">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R74" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S74" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T74" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>8.4549150280000003</v>
+      </c>
+      <c r="C75" s="4">
+        <v>24.755282579999999</v>
+      </c>
+      <c r="D75" s="4">
+        <v>35</v>
+      </c>
+      <c r="E75" s="4">
+        <v>8.4870000000000001</v>
+      </c>
+      <c r="F75" s="4">
+        <v>24.721</v>
+      </c>
+      <c r="G75" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J75" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L75">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P75">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R75" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S75" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T75" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4">
+        <v>5.9549150280000003</v>
+      </c>
+      <c r="C76" s="4">
+        <v>22.938926259999999</v>
+      </c>
+      <c r="D76" s="4">
+        <v>35</v>
+      </c>
+      <c r="E76" s="4">
+        <v>5.9539999999999997</v>
+      </c>
+      <c r="F76" s="4">
+        <v>22.872</v>
+      </c>
+      <c r="G76" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I76" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J76" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L76">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P76">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R76" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S76" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T76" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4">
+        <v>5</v>
+      </c>
+      <c r="C77" s="4">
+        <v>20</v>
+      </c>
+      <c r="D77" s="4">
+        <v>35</v>
+      </c>
+      <c r="E77" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F77" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G77" s="4">
+        <v>35</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I77" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J77" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="10"/>
+        <v>5.4023160530471301</v>
+      </c>
+      <c r="L77">
+        <v>2.36985231844664</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N77" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P77">
+        <v>1.6282859276552999</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R77" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S77" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T77" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="8"/>
+        <v>5.2402465714557165</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="9"/>
+        <v>5.5643855346385438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4">
+        <v>5.9549150280000003</v>
+      </c>
+      <c r="C78" s="4">
+        <v>17.061073740000001</v>
+      </c>
+      <c r="D78" s="4">
+        <v>35</v>
+      </c>
+      <c r="E78" s="4">
+        <v>5.9880000000000004</v>
+      </c>
+      <c r="F78" s="4">
+        <v>16.992999999999999</v>
+      </c>
+      <c r="G78" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J78" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L78">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N78" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P78">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R78" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S78" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T78" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4">
+        <v>8.4549150280000003</v>
+      </c>
+      <c r="C79" s="4">
+        <v>15.244717420000001</v>
+      </c>
+      <c r="D79" s="4">
+        <v>35</v>
+      </c>
+      <c r="E79" s="4">
+        <v>8.48</v>
+      </c>
+      <c r="F79" s="4">
+        <v>15.183999999999999</v>
+      </c>
+      <c r="G79" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J79" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K79" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L79">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N79" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P79">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R79" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S79" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T79" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4">
+        <v>11.54508497</v>
+      </c>
+      <c r="C80" s="4">
+        <v>15.244717420000001</v>
+      </c>
+      <c r="D80" s="4">
+        <v>35</v>
+      </c>
+      <c r="E80" s="4">
+        <v>11.571</v>
+      </c>
+      <c r="F80" s="4">
+        <v>15.201000000000001</v>
+      </c>
+      <c r="G80" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I80" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J80" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L80">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N80" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P80">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R80" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S80" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T80" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <v>14.04508497</v>
+      </c>
+      <c r="C81" s="4">
+        <v>17.061073740000001</v>
+      </c>
+      <c r="D81" s="4">
+        <v>35</v>
+      </c>
+      <c r="E81" s="4">
+        <v>14.061999999999999</v>
+      </c>
+      <c r="F81" s="4">
+        <v>17.026</v>
+      </c>
+      <c r="G81" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I81" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J81" s="6">
+        <v>5.5804679779239201</v>
+      </c>
+      <c r="K81" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L81">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N81" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P81">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R81" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S81" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T81" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <v>15</v>
+      </c>
+      <c r="C82" s="4">
+        <v>40</v>
+      </c>
+      <c r="D82" s="4">
+        <v>35</v>
+      </c>
+      <c r="E82" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="F82" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="G82" s="4">
+        <v>35</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I82" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J82" s="6">
+        <v>5.5815688728235102</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" si="10"/>
+        <v>5.4023160530471301</v>
+      </c>
+      <c r="L82">
+        <v>2.36985231844664</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N82" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P82">
+        <v>1.6282859276552999</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R82" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S82" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T82" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="8"/>
+        <v>5.2402465714557165</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="9"/>
+        <v>5.5643855346385438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4">
+        <v>14.04508497</v>
+      </c>
+      <c r="C83" s="4">
+        <v>42.938926260000002</v>
+      </c>
+      <c r="D83" s="4">
+        <v>35</v>
+      </c>
+      <c r="E83" s="4">
+        <v>14.07</v>
+      </c>
+      <c r="F83" s="4">
+        <v>42.902999999999999</v>
+      </c>
+      <c r="G83" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I83" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J83" s="6">
+        <v>5.5815688728235102</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L83">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N83" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P83">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R83" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S83" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T83" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4">
+        <v>11.54508497</v>
+      </c>
+      <c r="C84" s="4">
+        <v>44.755282579999999</v>
+      </c>
+      <c r="D84" s="4">
+        <v>35</v>
+      </c>
+      <c r="E84" s="4">
+        <v>11.569000000000001</v>
+      </c>
+      <c r="F84" s="4">
+        <v>44.712000000000003</v>
+      </c>
+      <c r="G84" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J84" s="6">
+        <v>5.5815688728235102</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L84">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N84" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P84">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R84" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S84" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T84" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4">
+        <v>8.4549150280000003</v>
+      </c>
+      <c r="C85" s="4">
+        <v>44.755282579999999</v>
+      </c>
+      <c r="D85" s="4">
+        <v>35</v>
+      </c>
+      <c r="E85" s="4">
+        <v>8.4779999999999998</v>
+      </c>
+      <c r="F85" s="4">
+        <v>44.704000000000001</v>
+      </c>
+      <c r="G85" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I85" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J85" s="6">
+        <v>5.5815688728235102</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L85">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N85" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P85">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R85" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S85" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T85" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4">
+        <v>5.9549150280000003</v>
+      </c>
+      <c r="C86" s="4">
+        <v>42.938926260000002</v>
+      </c>
+      <c r="D86" s="4">
+        <v>35</v>
+      </c>
+      <c r="E86" s="4">
+        <v>5.9779999999999998</v>
+      </c>
+      <c r="F86" s="4">
+        <v>42.887</v>
+      </c>
+      <c r="G86" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J86" s="6">
+        <v>5.5815688728235102</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L86">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N86" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P86">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R86" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S86" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T86" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4">
+        <v>5</v>
+      </c>
+      <c r="C87" s="4">
+        <v>40</v>
+      </c>
+      <c r="D87" s="4">
+        <v>35</v>
+      </c>
+      <c r="E87" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F87" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="G87" s="4">
+        <v>35</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J87" s="6">
+        <v>5.5815688728235102</v>
+      </c>
+      <c r="K87" s="4">
+        <f t="shared" si="10"/>
+        <v>5.4023160530471301</v>
+      </c>
+      <c r="L87">
+        <v>2.36985231844664</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N87" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P87">
+        <v>1.6282859276552999</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R87" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S87" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T87" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="8"/>
+        <v>5.2402465714557165</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="9"/>
+        <v>5.5643855346385438</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4">
+        <v>5.9549150280000003</v>
+      </c>
+      <c r="C88" s="4">
+        <v>37.061073739999998</v>
+      </c>
+      <c r="D88" s="4">
+        <v>35</v>
+      </c>
+      <c r="E88" s="4">
+        <v>5.9859999999999998</v>
+      </c>
+      <c r="F88" s="4">
+        <v>37.018000000000001</v>
+      </c>
+      <c r="G88" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I88" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J88" s="6">
+        <v>5.5815688728235102</v>
+      </c>
+      <c r="K88" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L88">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N88" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P88">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R88" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S88" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T88" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4">
+        <v>8.4549150280000003</v>
+      </c>
+      <c r="C89" s="4">
+        <v>35.244717420000001</v>
+      </c>
+      <c r="D89" s="4">
+        <v>35</v>
+      </c>
+      <c r="E89" s="4">
+        <v>8.4779999999999998</v>
+      </c>
+      <c r="F89" s="4">
+        <v>35.201000000000001</v>
+      </c>
+      <c r="G89" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I89" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J89" s="6">
+        <v>5.5815688728235102</v>
+      </c>
+      <c r="K89" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L89">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N89" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P89">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R89" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S89" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T89" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4">
+        <v>11.54508497</v>
+      </c>
+      <c r="C90" s="4">
+        <v>35.244717420000001</v>
+      </c>
+      <c r="D90" s="4">
+        <v>35</v>
+      </c>
+      <c r="E90" s="4">
+        <v>11.569000000000001</v>
+      </c>
+      <c r="F90" s="4">
+        <v>35.192999999999998</v>
+      </c>
+      <c r="G90" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I90" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J90" s="6">
+        <v>5.5815688728235102</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L90">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N90" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P90">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R90" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S90" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T90" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4">
+        <v>14.04508497</v>
+      </c>
+      <c r="C91" s="4">
+        <v>37.061073739999998</v>
+      </c>
+      <c r="D91" s="4">
+        <v>35</v>
+      </c>
+      <c r="E91" s="4">
+        <v>14.068</v>
+      </c>
+      <c r="F91" s="4">
+        <v>37.018000000000001</v>
+      </c>
+      <c r="G91" s="4">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I91" s="4">
+        <v>6.3005460270000002</v>
+      </c>
+      <c r="J91" s="6">
+        <v>5.5815688728235102</v>
+      </c>
+      <c r="K91" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4367857081923292</v>
+      </c>
+      <c r="L91">
+        <v>2.6413695468321001</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N91" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P91">
+        <v>1.7406515808416301</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R91" t="b">
+        <f t="shared" ref="R91:R97" si="11">IF(OR(J91*0.95&gt;I91,J91*1.05&gt;I91),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S91" t="b">
+        <f t="shared" ref="S91:S97" si="12">IF(AND(K91&gt;(J91*0.96),K91&lt;(J91*1.04)),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T91" t="b">
+        <f t="shared" ref="T91:T97" si="13">OR(R91,S91)</f>
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="8"/>
+        <v>6.2436821369465587</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="9"/>
+        <v>6.6298892794380997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4">
+        <v>40</v>
+      </c>
+      <c r="C92" s="4">
+        <v>30</v>
+      </c>
+      <c r="D92" s="4">
+        <v>40</v>
+      </c>
+      <c r="E92" s="4">
+        <v>40.1</v>
+      </c>
+      <c r="F92" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="G92" s="4">
+        <v>40</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I92" s="4">
+        <v>7.7283896780000001</v>
+      </c>
+      <c r="J92" s="6">
+        <v>7.7869089840440999</v>
+      </c>
+      <c r="K92" s="4">
+        <f t="shared" si="10"/>
+        <v>6.3366974316725289</v>
+      </c>
+      <c r="L92">
+        <v>2.8125494646605098</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N92" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P92">
+        <v>1.6092916793344301</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R92" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S92" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T92" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="8"/>
+        <v>6.1465965087223529</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="9"/>
+        <v>6.5267983546227049</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4">
+        <v>38.090169940000003</v>
+      </c>
+      <c r="C93" s="4">
+        <v>35.877852519999998</v>
+      </c>
+      <c r="D93" s="4">
+        <v>40</v>
+      </c>
+      <c r="E93" s="4">
+        <v>38.121000000000002</v>
+      </c>
+      <c r="F93" s="4">
+        <v>35.834000000000003</v>
+      </c>
+      <c r="G93" s="4">
+        <v>40.152000000000001</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I93" s="4">
+        <v>7.7283896780000001</v>
+      </c>
+      <c r="J93" s="6">
+        <v>7.7869089840440999</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" si="10"/>
+        <v>7.8467282875438675</v>
+      </c>
+      <c r="L93">
+        <v>3.30908112732949</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N93" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P93">
+        <v>1.6937650374856199</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R93" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S93" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T93" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="8"/>
+        <v>7.6113264389175512</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="9"/>
+        <v>8.0821301361701838</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4">
+        <v>33.090169940000003</v>
+      </c>
+      <c r="C94" s="4">
+        <v>39.510565159999999</v>
+      </c>
+      <c r="D94" s="4">
+        <v>40</v>
+      </c>
+      <c r="E94" s="4">
+        <v>33.121000000000002</v>
+      </c>
+      <c r="F94" s="4">
+        <v>39.475000000000001</v>
+      </c>
+      <c r="G94" s="4">
+        <v>40.152000000000001</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I94" s="4">
+        <v>7.7283896780000001</v>
+      </c>
+      <c r="J94" s="6">
+        <v>7.7869089840440999</v>
+      </c>
+      <c r="K94" s="4">
+        <f t="shared" si="10"/>
+        <v>7.8467282875438675</v>
+      </c>
+      <c r="L94">
+        <v>3.30908112732949</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N94" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P94">
+        <v>1.6937650374856199</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R94" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S94" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T94" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="8"/>
+        <v>7.6113264389175512</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="9"/>
+        <v>8.0821301361701838</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4">
+        <v>26.909830060000001</v>
+      </c>
+      <c r="C95" s="4">
+        <v>39.510565159999999</v>
+      </c>
+      <c r="D95" s="4">
+        <v>40</v>
+      </c>
+      <c r="E95" s="4">
+        <v>26.931999999999999</v>
+      </c>
+      <c r="F95" s="4">
+        <v>39.482999999999997</v>
+      </c>
+      <c r="G95" s="4">
+        <v>40.152000000000001</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I95" s="4">
+        <v>7.7283896780000001</v>
+      </c>
+      <c r="J95" s="6">
+        <v>7.7869089840440999</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" si="10"/>
+        <v>7.8467282875438675</v>
+      </c>
+      <c r="L95">
+        <v>3.30908112732949</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N95" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P95">
+        <v>1.6937650374856199</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R95" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S95" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T95" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="8"/>
+        <v>7.6113264389175512</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="9"/>
+        <v>8.0821301361701838</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4">
+        <v>21.909830060000001</v>
+      </c>
+      <c r="C96" s="4">
+        <v>35.877852519999998</v>
+      </c>
+      <c r="D96" s="4">
+        <v>40</v>
+      </c>
+      <c r="E96" s="4">
+        <v>21.940999999999999</v>
+      </c>
+      <c r="F96" s="4">
+        <v>35.834000000000003</v>
+      </c>
+      <c r="G96" s="4">
+        <v>40.152000000000001</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I96" s="4">
+        <v>7.7283896780000001</v>
+      </c>
+      <c r="J96" s="6">
+        <v>7.7869089840440999</v>
+      </c>
+      <c r="K96" s="4">
+        <f t="shared" si="10"/>
+        <v>7.8467282875438675</v>
+      </c>
+      <c r="L96">
+        <v>3.30908112732949</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N96" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P96">
+        <v>1.6937650374856199</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R96" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S96" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T96" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="8"/>
+        <v>7.6113264389175512</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="9"/>
+        <v>8.0821301361701838</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4">
+        <v>20</v>
+      </c>
+      <c r="C97" s="4">
+        <v>30</v>
+      </c>
+      <c r="D97" s="4">
+        <v>40</v>
+      </c>
+      <c r="E97" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F97" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="G97" s="4">
+        <v>40</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I97" s="4">
+        <v>7.7283896780000001</v>
+      </c>
+      <c r="J97" s="7">
+        <v>7.7869089840440999</v>
+      </c>
+      <c r="K97" s="4">
+        <f t="shared" si="10"/>
+        <v>6.3366974316725289</v>
+      </c>
+      <c r="L97">
+        <v>2.8125494646605098</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N97" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P97">
+        <v>1.6092916793344301</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R97" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S97" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T97" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="8"/>
+        <v>6.1465965087223529</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="9"/>
+        <v>6.5267983546227049</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R3:R97">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S97">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T97">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>